--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T11:38:03+02:00</t>
+    <t>2023-07-20T13:16:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-20T13:16:53+02:00</t>
+    <t>2023-07-21T08:53:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T08:53:22+02:00</t>
+    <t>2023-07-21T09:07:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="366">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-Appointment</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>2.2.0-alpha</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T09:07:54+02:00</t>
+    <t>2023-08-24T14:49:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,10 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
+    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -328,7 +332,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-virtual-service}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service}
 </t>
   </si>
   <si>
@@ -348,7 +352,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-group}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-group}
 </t>
   </si>
   <si>
@@ -364,7 +368,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-partof}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-partof}
 </t>
   </si>
   <si>
@@ -600,7 +604,7 @@
     <t>Recomended code systems for no-basis-Appointment.</t>
   </si>
   <si>
-    <t>Recomended code systems for n-basis-Appointment. The reconmended code systems might not be suficient for defining appointment type and in an implemented profile - some other coding might be needed.</t>
+    <t>Recomended code systems for no-basis-Appointment. The recomended code systems might not be suficient for defining appointment type and in an implemented profile - some other coding might be needed.</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
@@ -1618,16 +1622,16 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>35</v>
@@ -1638,10 +1642,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1652,7 +1656,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -1661,19 +1665,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1723,13 +1727,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -1755,10 +1759,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1769,7 +1773,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -1778,16 +1782,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1838,19 +1842,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -1870,10 +1874,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1884,28 +1888,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1955,19 +1959,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -1987,10 +1991,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2001,7 +2005,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -2013,16 +2017,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2048,13 +2052,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2072,19 +2076,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2104,21 +2108,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -2130,16 +2134,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2189,25 +2193,25 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>35</v>
@@ -2221,14 +2225,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2247,16 +2251,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2306,7 +2310,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2324,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>35</v>
@@ -2338,10 +2342,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2364,13 +2368,13 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2409,17 +2413,17 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2431,7 +2435,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2451,13 +2455,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>35</v>
@@ -2470,7 +2474,7 @@
         <v>37</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>35</v>
@@ -2479,13 +2483,13 @@
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2536,7 +2540,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2545,10 +2549,10 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2568,13 +2572,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>35</v>
@@ -2584,10 +2588,10 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>35</v>
@@ -2596,13 +2600,13 @@
         <v>35</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2653,7 +2657,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -2662,10 +2666,10 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -2685,13 +2689,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>35</v>
@@ -2701,10 +2705,10 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>35</v>
@@ -2713,13 +2717,13 @@
         <v>35</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2770,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -2779,10 +2783,10 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -2802,14 +2806,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2822,25 +2826,25 @@
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>35</v>
@@ -2889,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -2901,13 +2905,13 @@
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>35</v>
@@ -2921,10 +2925,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2944,16 +2948,16 @@
         <v>35</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3004,7 +3008,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3016,30 +3020,30 @@
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3047,31 +3051,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3097,13 +3101,13 @@
         <v>35</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>35</v>
@@ -3121,42 +3125,42 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3167,7 +3171,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -3176,16 +3180,16 @@
         <v>35</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3212,11 +3216,11 @@
         <v>35</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>35</v>
@@ -3234,25 +3238,25 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>35</v>
@@ -3266,10 +3270,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3289,16 +3293,16 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3325,11 +3329,11 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
@@ -3347,7 +3351,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3359,16 +3363,16 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>35</v>
@@ -3379,10 +3383,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3402,19 +3406,19 @@
         <v>35</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3440,11 +3444,11 @@
         <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>35</v>
@@ -3462,7 +3466,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3474,13 +3478,13 @@
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
@@ -3494,10 +3498,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3517,16 +3521,16 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3553,11 +3557,11 @@
         <v>35</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>35</v>
@@ -3575,7 +3579,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -3587,19 +3591,19 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>35</v>
@@ -3607,10 +3611,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3621,7 +3625,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -3630,16 +3634,16 @@
         <v>35</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3666,11 +3670,11 @@
         <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>35</v>
@@ -3688,42 +3692,42 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3734,7 +3738,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>35</v>
@@ -3746,13 +3750,13 @@
         <v>35</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3803,13 +3807,13 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
@@ -3821,7 +3825,7 @@
         <v>35</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>35</v>
@@ -3835,14 +3839,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3861,16 +3865,16 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3908,19 +3912,19 @@
         <v>35</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -3932,13 +3936,13 @@
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>35</v>
@@ -3952,10 +3956,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3975,22 +3979,22 @@
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>35</v>
@@ -4027,17 +4031,17 @@
         <v>35</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4049,13 +4053,13 @@
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>35</v>
@@ -4064,18 +4068,18 @@
         <v>35</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>35</v>
@@ -4085,7 +4089,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
@@ -4094,22 +4098,22 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>35</v>
@@ -4134,13 +4138,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -4158,7 +4162,7 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
@@ -4170,13 +4174,13 @@
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>35</v>
@@ -4185,18 +4189,18 @@
         <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>35</v>
@@ -4206,7 +4210,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>35</v>
@@ -4215,22 +4219,22 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -4255,13 +4259,13 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -4279,7 +4283,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4291,13 +4295,13 @@
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>35</v>
@@ -4306,18 +4310,18 @@
         <v>35</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>35</v>
@@ -4327,7 +4331,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>35</v>
@@ -4336,22 +4340,22 @@
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>35</v>
@@ -4376,13 +4380,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -4400,7 +4404,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4412,13 +4416,13 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>35</v>
@@ -4427,15 +4431,15 @@
         <v>35</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4446,7 +4450,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -4455,22 +4459,22 @@
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -4519,25 +4523,25 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>35</v>
@@ -4546,15 +4550,15 @@
         <v>35</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4574,16 +4578,16 @@
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4610,13 +4614,13 @@
         <v>35</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>35</v>
@@ -4634,7 +4638,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -4646,13 +4650,13 @@
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>35</v>
@@ -4661,15 +4665,15 @@
         <v>35</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4692,13 +4696,13 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4749,7 +4753,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -4761,13 +4765,13 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>35</v>
@@ -4781,10 +4785,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4795,7 +4799,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -4807,16 +4811,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4866,42 +4870,42 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4912,7 +4916,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -4924,13 +4928,13 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4981,42 +4985,42 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5039,13 +5043,13 @@
         <v>35</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5096,7 +5100,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5108,19 +5112,19 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>35</v>
@@ -5128,10 +5132,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5142,7 +5146,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -5151,16 +5155,16 @@
         <v>35</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5211,42 +5215,42 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5257,7 +5261,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>35</v>
@@ -5266,16 +5270,16 @@
         <v>35</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5326,42 +5330,42 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5372,7 +5376,7 @@
         <v>36</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>35</v>
@@ -5384,13 +5388,13 @@
         <v>35</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5441,28 +5445,28 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -5473,10 +5477,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5499,13 +5503,13 @@
         <v>35</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5556,7 +5560,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5568,13 +5572,13 @@
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>35</v>
@@ -5588,10 +5592,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5602,7 +5606,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -5614,16 +5618,16 @@
         <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5673,28 +5677,28 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>35</v>
@@ -5705,10 +5709,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5719,7 +5723,7 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>35</v>
@@ -5731,16 +5735,16 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5790,42 +5794,42 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5836,7 +5840,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>35</v>
@@ -5848,13 +5852,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5905,46 +5909,46 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5963,13 +5967,13 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6020,7 +6024,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6032,13 +6036,13 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>35</v>
@@ -6052,10 +6056,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6063,7 +6067,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>37</v>
@@ -6078,13 +6082,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6135,10 +6139,10 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>37</v>
@@ -6147,30 +6151,30 @@
         <v>35</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6181,7 +6185,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>35</v>
@@ -6193,13 +6197,13 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6250,13 +6254,13 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>35</v>
@@ -6268,7 +6272,7 @@
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>35</v>
@@ -6282,14 +6286,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6308,16 +6312,16 @@
         <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6367,7 +6371,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6379,13 +6383,13 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>35</v>
@@ -6399,14 +6403,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6419,25 +6423,25 @@
         <v>35</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>35</v>
@@ -6486,7 +6490,7 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6498,13 +6502,13 @@
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>35</v>
@@ -6518,10 +6522,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6541,19 +6545,19 @@
         <v>35</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6579,13 +6583,13 @@
         <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>35</v>
@@ -6603,7 +6607,7 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -6615,30 +6619,30 @@
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6649,7 +6653,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>35</v>
@@ -6658,16 +6662,16 @@
         <v>35</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6718,42 +6722,42 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6764,7 +6768,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -6773,16 +6777,16 @@
         <v>35</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6809,13 +6813,13 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -6833,28 +6837,28 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
@@ -6865,10 +6869,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6876,10 +6880,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>35</v>
@@ -6888,16 +6892,16 @@
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6924,13 +6928,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -6948,42 +6952,42 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6994,7 +6998,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>35</v>
@@ -7006,13 +7010,13 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7063,25 +7067,25 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>35</v>
@@ -7095,10 +7099,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7121,16 +7125,16 @@
         <v>35</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7180,7 +7184,7 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7192,13 +7196,13 @@
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>35</v>
@@ -7207,7 +7211,7 @@
         <v>35</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T14:49:19+02:00</t>
+    <t>2023-08-24T15:39:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T15:39:37+02:00</t>
+    <t>2023-10-04T22:15:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:15:59+02:00</t>
+    <t>2023-10-04T22:20:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T22:20:28+02:00</t>
+    <t>2023-10-05T18:44:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:44:58+02:00</t>
+    <t>2023-10-05T18:59:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T18:59:01+02:00</t>
+    <t>2023-10-05T22:34:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-Appointment.xlsx
+++ b/output/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T22:34:13+02:00</t>
+    <t>2023-10-05T23:14:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Example Publisher</t>
+    <t>Hl7 Norge</t>
   </si>
   <si>
     <t>Contact</t>
@@ -336,7 +336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Virtual Service </t>
+    <t>Virtual Service</t>
   </si>
   <si>
     <t>The VirtualService structure defines details of a virtual communication capability, such as a web conference call.</t>
